--- a/tabledata.xlsx
+++ b/tabledata.xlsx
@@ -1,41 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\CS300\Assignment4\CS331-Group-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B2C4E-3855-4837-BB45-0A7A68E42FA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{D21544A6-15EB-48C4-AF44-F795AF05DEE9}"/>
+    <workbookView windowWidth="22943" windowHeight="9875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+  <si>
+    <t>AdminAccnt</t>
+  </si>
+  <si>
+    <t>StaffID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>PhoneNum</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Thomas Dinkle</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Tenured Professor</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>Reinhard Shriver</t>
+  </si>
+  <si>
+    <t>Sanitation</t>
+  </si>
+  <si>
+    <t>Janitor</t>
+  </si>
+  <si>
+    <t>uiop</t>
+  </si>
+  <si>
+    <t>Carl Houser</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Head of Mathematics</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
   <si>
     <t>StudentID</t>
   </si>
   <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>Graduation_Year</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
     <t>Major</t>
   </si>
   <si>
@@ -45,219 +109,138 @@
     <t>SpouseID</t>
   </si>
   <si>
-    <t>Alumni</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Graduation_Year</t>
-  </si>
-  <si>
-    <t>Degree</t>
+    <t>PermAddress</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Freshman</t>
+  </si>
+  <si>
+    <t>Alyx Einzbern</t>
   </si>
   <si>
     <t>Computer Science</t>
   </si>
   <si>
+    <t>Sophmore</t>
+  </si>
+  <si>
+    <t>123 NE 133rd, Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Wanda Fisher</t>
+  </si>
+  <si>
     <t>Chemistry</t>
   </si>
   <si>
-    <t>Physics</t>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>442 4th, Seattle, WA</t>
+  </si>
+  <si>
+    <t>Erin Tanner</t>
+  </si>
+  <si>
+    <t>543 Oaks pl, Kent, WA</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>William Carson</t>
   </si>
   <si>
     <t>Industrial Design</t>
   </si>
   <si>
+    <t>Adan Howard</t>
+  </si>
+  <si>
     <t>Carpentry</t>
   </si>
   <si>
+    <t>98 S Wreks st, City, ST</t>
+  </si>
+  <si>
+    <t>Olaf Karlsson</t>
+  </si>
+  <si>
     <t>Moonlighting</t>
   </si>
   <si>
+    <t>12 Carisa Ct, Marin, CA</t>
+  </si>
+  <si>
+    <t>Melody Vulkan</t>
+  </si>
+  <si>
+    <t>34 84th st. Citytown, MF</t>
+  </si>
+  <si>
+    <t>Janina Briner</t>
+  </si>
+  <si>
     <t>Industrial Espionage</t>
   </si>
   <si>
+    <t>12314 Boring pl, West, VA</t>
+  </si>
+  <si>
+    <t>Jack Kingfisher</t>
+  </si>
+  <si>
     <t>Physical Therapy</t>
   </si>
   <si>
-    <t>Freshman</t>
-  </si>
-  <si>
-    <t>Sophmore</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>Senior</t>
-  </si>
-  <si>
-    <t>SSN</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>AdminAccnt</t>
-  </si>
-  <si>
-    <t>StaffID</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>PhoneNum</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>uiop</t>
-  </si>
-  <si>
-    <t>Thomas Dinkle</t>
-  </si>
-  <si>
-    <t>Reinhard Shriver</t>
-  </si>
-  <si>
-    <t>Carl Houser</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Tenured Professor</t>
-  </si>
-  <si>
-    <t>Janitor</t>
-  </si>
-  <si>
-    <t>Head of Mathematics</t>
-  </si>
-  <si>
-    <t>Sanitation</t>
-  </si>
-  <si>
-    <t>Math</t>
+    <t>429 south avenue, Coney, WA</t>
+  </si>
+  <si>
+    <t>Darla Kickum</t>
   </si>
   <si>
     <t>Nursing</t>
   </si>
   <si>
+    <t>4904 Merr Pl, Fruit, PL</t>
+  </si>
+  <si>
+    <t>Hawke Blokkum</t>
+  </si>
+  <si>
     <t>Electronic Engineering</t>
   </si>
   <si>
+    <t>912 First Avenue, Old Town, NW</t>
+  </si>
+  <si>
+    <t>Aiko Kamino</t>
+  </si>
+  <si>
+    <t>Daniel Marks</t>
+  </si>
+  <si>
     <t>Hats</t>
   </si>
   <si>
-    <t>Alyx Einzbern</t>
-  </si>
-  <si>
-    <t>Wanda Fisher</t>
-  </si>
-  <si>
-    <t>Erin Tanner</t>
-  </si>
-  <si>
-    <t>William Carson</t>
-  </si>
-  <si>
-    <t>Adan Howard</t>
-  </si>
-  <si>
-    <t>Olaf Karlsson</t>
-  </si>
-  <si>
-    <t>Melody Vulkan</t>
-  </si>
-  <si>
-    <t>Janina Briner</t>
-  </si>
-  <si>
-    <t>Jack Kingfisher</t>
-  </si>
-  <si>
-    <t>Darla Kickum</t>
-  </si>
-  <si>
-    <t>Hawke Blokkum</t>
-  </si>
-  <si>
-    <t>Aiko Kamino</t>
-  </si>
-  <si>
-    <t>Daniel Marks</t>
-  </si>
-  <si>
-    <t>PermAddress</t>
-  </si>
-  <si>
-    <t>123 NE 133rd, Minneapolis, MN</t>
-  </si>
-  <si>
-    <t>442 4th, Seattle, WA</t>
-  </si>
-  <si>
-    <t>543 Oaks pl, Kent, WA</t>
-  </si>
-  <si>
-    <t>98 S Wreks st, City, ST</t>
-  </si>
-  <si>
-    <t>12 Carisa Ct, Marin, CA</t>
-  </si>
-  <si>
-    <t>34 84th st. Citytown, MF</t>
-  </si>
-  <si>
-    <t>12314 Boring pl, West, VA</t>
-  </si>
-  <si>
-    <t>429 south avenue, Coney, WA</t>
-  </si>
-  <si>
-    <t>4904 Merr Pl, Fruit, PL</t>
-  </si>
-  <si>
-    <t>912 First Avenue, Old Town, NW</t>
-  </si>
-  <si>
     <t>912 Courto st, West Main, CA</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>MaritalStatus</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Resident</t>
   </si>
   <si>
@@ -333,43 +316,401 @@
     <t>Marriage</t>
   </si>
   <si>
-    <t>Astyle</t>
-  </si>
-  <si>
-    <t>Sstyle</t>
+    <t>Style</t>
   </si>
   <si>
     <t>SpaceAvailable</t>
+  </si>
+  <si>
+    <t>Two Bedroon, Four Persons</t>
+  </si>
+  <si>
+    <t>Four Bedrooms, Four Persons</t>
+  </si>
+  <si>
+    <t>One Bedroom, One Person</t>
+  </si>
+  <si>
+    <t>One Bedroom, Two Persons</t>
+  </si>
+  <si>
+    <t>Two Bedroom, Two Persons</t>
+  </si>
+  <si>
+    <t>Two Bedroom, Three Persons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -377,25 +718,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -444,7 +1072,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -477,26 +1105,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -529,23 +1140,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,70 +1281,65 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC82CDE-FBB2-4AC5-AA7E-61E437647FB3}">
-  <dimension ref="A1:T38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="19.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="15.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="11.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>82399</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -759,117 +1348,117 @@
         <v>5441134</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>44254</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>7736005</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>86177</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>4092524</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>28</v>
-      </c>
       <c r="T9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>240583147</v>
       </c>
@@ -877,7 +1466,7 @@
         <v>1234567890</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -886,22 +1475,22 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>144515400</v>
       </c>
@@ -909,7 +1498,7 @@
         <v>1538913561</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -918,25 +1507,25 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1">
         <v>324430188</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>703919184</v>
       </c>
@@ -944,7 +1533,7 @@
         <v>3218798436</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -956,19 +1545,19 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Q12" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="T12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>324430188</v>
       </c>
@@ -976,7 +1565,7 @@
         <v>3216898731</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -985,22 +1574,22 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1">
         <v>144515400</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="Q13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>613435783</v>
       </c>
@@ -1008,7 +1597,7 @@
         <v>2467954981</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1017,19 +1606,19 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>647849253</v>
       </c>
@@ -1037,7 +1626,7 @@
         <v>3215648919</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1046,22 +1635,22 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J15" s="1">
         <v>509452778</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>853987402</v>
       </c>
@@ -1069,7 +1658,7 @@
         <v>3574984168</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1078,19 +1667,19 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>141161204</v>
       </c>
@@ -1098,7 +1687,7 @@
         <v>6898168978</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1107,19 +1696,19 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>963339995</v>
       </c>
@@ -1127,7 +1716,7 @@
         <v>4867187987</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1136,19 +1725,19 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>731397238</v>
       </c>
@@ -1156,7 +1745,7 @@
         <v>4432159873</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1165,7 +1754,7 @@
         <v>2015</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1174,10 +1763,10 @@
         <v>67</v>
       </c>
       <c r="Q19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>388846359</v>
       </c>
@@ -1185,7 +1774,7 @@
         <v>8431895132</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1194,19 +1783,19 @@
         <v>2016</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>509452778</v>
       </c>
@@ -1214,7 +1803,7 @@
         <v>6135498732</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1223,7 +1812,7 @@
         <v>2015</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1232,13 +1821,13 @@
         <v>647849253</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>350395643</v>
       </c>
@@ -1246,7 +1835,7 @@
         <v>9843293216</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1255,121 +1844,130 @@
         <v>2012</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1234567890</v>
       </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
       <c r="H26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>3218798436</v>
       </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
       </c>
       <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" t="s">
         <v>28</v>
       </c>
-      <c r="F31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1</v>
-      </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
         <v>78</v>
@@ -1393,32 +1991,35 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>4867187987</v>
       </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
       <c r="C32" s="1">
         <v>963339995</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -1447,12 +2048,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -1474,16 +2075,265 @@
       <c r="G38" t="s">
         <v>101</v>
       </c>
-      <c r="H38" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>101</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>102</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>103</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" t="s">
+        <v>103</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>104</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="L42" t="s">
+        <v>104</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>201</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>202</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>103</v>
+      </c>
+      <c r="L44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>203</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>204</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>102</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>201</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>202</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>203</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>204</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I18" xr:uid="{7B7453BC-8340-4068-8B19-02BDDA438805}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39">
+      <formula1>$P$40:$P$44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F54">
+      <formula1>$L$39:$L$44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I18">
       <formula1>$T$9:$T$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tabledata.xlsx
+++ b/tabledata.xlsx
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/tabledata.xlsx
+++ b/tabledata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>AdminAccnt</t>
   </si>
@@ -310,6 +310,12 @@
     <t>Employee</t>
   </si>
   <si>
+    <t>The facucet is leaking</t>
+  </si>
+  <si>
+    <t>I'm snowed in, everyone is gone for winter break send help</t>
+  </si>
+  <si>
     <t>Room</t>
   </si>
   <si>
@@ -325,6 +331,9 @@
     <t>Two Bedroon, Four Persons</t>
   </si>
   <si>
+    <t>1 Lindholm ct, Bellevue, WA</t>
+  </si>
+  <si>
     <t>Four Bedrooms, Four Persons</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
   </si>
   <si>
     <t>Two Bedroom, Three Persons</t>
+  </si>
+  <si>
+    <t>2 Lindholm ct, Bellevue, WA</t>
   </si>
 </sst>
 </file>
@@ -345,12 +357,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,62 +377,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,11 +393,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,9 +425,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,16 +485,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,23 +506,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +530,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -537,31 +638,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,115 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,40 +724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,171 +784,195 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1287,10 +1293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1300,6 +1306,7 @@
     <col min="3" max="3" width="15.8518518518519" customWidth="1"/>
     <col min="4" max="4" width="11.712962962963" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="29.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="14.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1483,6 +1490,10 @@
       <c r="K10" t="s">
         <v>40</v>
       </c>
+      <c r="O10" t="b">
+        <f>IF(J10,TRUE(),FALSE())</f>
+        <v>0</v>
+      </c>
       <c r="Q10" t="s">
         <v>41</v>
       </c>
@@ -1518,6 +1529,10 @@
       <c r="K11" t="s">
         <v>45</v>
       </c>
+      <c r="O11" t="b">
+        <f t="shared" ref="O11:O23" si="0">IF(J11,TRUE(),FALSE())</f>
+        <v>1</v>
+      </c>
       <c r="Q11" t="s">
         <v>41</v>
       </c>
@@ -1550,6 +1565,10 @@
       <c r="K12" t="s">
         <v>47</v>
       </c>
+      <c r="O12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q12" t="s">
         <v>11</v>
       </c>
@@ -1585,6 +1604,10 @@
       <c r="K13" t="s">
         <v>45</v>
       </c>
+      <c r="O13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="Q13" t="s">
         <v>11</v>
       </c>
@@ -1614,6 +1637,10 @@
       <c r="K14" t="s">
         <v>53</v>
       </c>
+      <c r="O14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q14" t="s">
         <v>11</v>
       </c>
@@ -1646,6 +1673,10 @@
       <c r="K15" t="s">
         <v>56</v>
       </c>
+      <c r="O15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="Q15" t="s">
         <v>11</v>
       </c>
@@ -1675,6 +1706,10 @@
       <c r="K16" t="s">
         <v>58</v>
       </c>
+      <c r="O16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q16" t="s">
         <v>41</v>
       </c>
@@ -1704,6 +1739,10 @@
       <c r="K17" t="s">
         <v>61</v>
       </c>
+      <c r="O17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q17" t="s">
         <v>41</v>
       </c>
@@ -1733,6 +1772,10 @@
       <c r="K18" t="s">
         <v>64</v>
       </c>
+      <c r="O18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q18" t="s">
         <v>11</v>
       </c>
@@ -1762,6 +1805,10 @@
       <c r="K19" t="s">
         <v>67</v>
       </c>
+      <c r="O19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q19" t="s">
         <v>41</v>
       </c>
@@ -1791,6 +1838,10 @@
       <c r="K20" t="s">
         <v>70</v>
       </c>
+      <c r="O20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q20" t="s">
         <v>11</v>
       </c>
@@ -1823,6 +1874,10 @@
       <c r="K21" t="s">
         <v>56</v>
       </c>
+      <c r="O21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="Q21" t="s">
         <v>41</v>
       </c>
@@ -1852,6 +1907,10 @@
       <c r="K22" t="s">
         <v>74</v>
       </c>
+      <c r="O22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q22" t="s">
         <v>11</v>
       </c>
@@ -2048,63 +2107,78 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>101</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>41712</v>
+      </c>
+      <c r="F36" s="2">
+        <v>41715</v>
+      </c>
+      <c r="G36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>201</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43435</v>
+      </c>
+      <c r="G37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
         <v>90</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>91</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>92</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>77</v>
       </c>
-      <c r="E38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E40" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>101</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>102</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>102</v>
       </c>
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
       <c r="L40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2115,16 +2189,25 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -2135,16 +2218,25 @@
         <v>1</v>
       </c>
       <c r="B42">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
         <v>104</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>102</v>
+      <c r="G42">
+        <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -2155,16 +2247,25 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="P43">
         <v>3</v>
@@ -2175,16 +2276,25 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P44">
         <v>4</v>
@@ -2195,139 +2305,287 @@
         <v>1</v>
       </c>
       <c r="B45">
+        <v>201</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>202</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
         <v>203</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>204</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>102</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
         <v>103</v>
       </c>
-      <c r="L45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>104</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>201</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>202</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>203</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
         <v>204</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>101</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>102</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>103</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>104</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>201</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>202</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>203</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>204</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F56">
+      <formula1>$L$40:$L$45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:G56">
       <formula1>$P$40:$P$44</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F54">
-      <formula1>$L$39:$L$44</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I18">
       <formula1>$T$9:$T$12</formula1>
